--- a/sql_test/excel/table.xlsx
+++ b/sql_test/excel/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\sql_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\work\sql_test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227D72F-A3B4-491E-A720-114BCE0B1606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CE8A2C-9DC6-442D-84B2-8C80BA5967F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="16920" windowHeight="10990" xr2:uid="{139465E0-3EFB-4DCD-942B-1C8FD15078AE}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="22780" windowHeight="14800" xr2:uid="{139465E0-3EFB-4DCD-942B-1C8FD15078AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
   <dimension ref="B2:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="H19" sqref="H19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1599,7 +1599,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" ref="I4:I21" si="0">INDEX(B:D,MATCH(G:G,B:B,0),3)</f>
+        <f t="shared" ref="I7:I20" si="0">INDEX(B:D,MATCH(G:G,B:B,0),3)</f>
         <v>char(6)</v>
       </c>
     </row>
